--- a/P&E/clase03x1.xlsx
+++ b/P&E/clase03x1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629AF1A-27C6-4B96-91CB-15C855078577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2FC6DD-801C-4190-9F79-9AB23A67C3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="0" windowWidth="6840" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Edades</t>
   </si>
@@ -77,13 +77,67 @@
   </si>
   <si>
     <t>20/2=10</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>49-53</t>
+  </si>
+  <si>
+    <t>53-57</t>
+  </si>
+  <si>
+    <t>57-61</t>
+  </si>
+  <si>
+    <t>61-65</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>Fórmula de promedio:</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>La mediana:</t>
+  </si>
+  <si>
+    <t>Que nos permite identificar el intervalo de la mediana (en amarillo)</t>
+  </si>
+  <si>
+    <t>Ahí aplicamos:</t>
+  </si>
+  <si>
+    <t>Entonces mediana:</t>
+  </si>
+  <si>
+    <t>Fórmula de moda:</t>
+  </si>
+  <si>
+    <t>¿Cuál es el intervalo que le corresponde a moda?</t>
+  </si>
+  <si>
+    <t>El de mayor frecuencia (en verde).</t>
+  </si>
+  <si>
+    <t>Entonces moda:</t>
+  </si>
+  <si>
+    <t>Entonces promedio:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +145,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +167,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,19 +188,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -149,20 +261,1414 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1381125" cy="654603"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2168486-2264-E1DE-55DE-E389DE48C0A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2181225" y="2790826"/>
+              <a:ext cx="1381125" cy="654603"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="es-AR" sz="2200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-AR" sz="2200" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-AR" sz="2200" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-AR" sz="2200" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2168486-2264-E1DE-55DE-E389DE48C0A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2181225" y="2790826"/>
+              <a:ext cx="1381125" cy="654603"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(∑▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2897460" cy="858505"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2362301-9FAC-D21E-60B6-B8310102BB40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="881062" y="4557712"/>
+              <a:ext cx="2897460" cy="858505"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐹</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2362301-9FAC-D21E-60B6-B8310102BB40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="881062" y="4557712"/>
+              <a:ext cx="2897460" cy="858505"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒=𝐿_𝑖+(𝑛/2−𝐹_(𝑖−1))/𝑓_𝑖 ∗𝐴_𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4444743" cy="703719"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76B0835-C3B7-4306-92DE-BDE1899BB807}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1228725" y="5915025"/>
+              <a:ext cx="4444743" cy="703719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76B0835-C3B7-4306-92DE-BDE1899BB807}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1228725" y="5915025"/>
+              <a:ext cx="4444743" cy="703719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑜=𝐿_𝑖+(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−𝑓_(𝑖−1))/(〖(𝑓〗_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(𝑖−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(𝑓〗_𝑖−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗𝐴_𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0133A0E3-7324-4F8D-B9D9-7196C3307884}" name="Tabla1" displayName="Tabla1" ref="A1:E7" totalsRowCount="1">
-  <autoFilter ref="A1:E6" xr:uid="{0133A0E3-7324-4F8D-B9D9-7196C3307884}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6A773ED0-7A66-4C57-9D91-DEDDC1C3E1B3}" name="Edades" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F8B072C5-715E-4F3A-8B33-B7F73441925B}" name="x" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{F8B072C5-715E-4F3A-8B33-B7F73441925B}" name="x" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7C022807-357B-48CE-A095-B0EEAE231187}" name="fab" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{D2CC48FD-6C91-4A72-BE6C-33FA754154C2}" name="Faa" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{D2CC48FD-6C91-4A72-BE6C-33FA754154C2}" name="Faa" dataDxfId="4">
       <calculatedColumnFormula>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A1367C7C-F9F7-4539-8846-9AB76CCC078F}" name="x*f" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{A1367C7C-F9F7-4539-8846-9AB76CCC078F}" name="x*f" totalsRowFunction="sum" dataDxfId="3">
       <calculatedColumnFormula>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB4FE7E1-4064-4BEA-9925-BE044B8684F3}" name="Tabla2" displayName="Tabla2" ref="A13:E19" totalsRowCount="1">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{76BB6652-3F24-48FB-8DB8-8FB9BC699AD3}" name="Peso" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{57961F8B-FC13-4B3C-904C-5B4D70CD186F}" name="x" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7F59D1AC-B4D7-4C02-8CA6-0BF80D5C0FFA}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{8C490FF0-3C20-4135-99F4-5741FA3A5425}" name="Faa" dataDxfId="1">
+      <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DD4975C8-3E7C-4C20-8365-84C867E58B78}" name="xf" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -432,21 +1938,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB824CA-7F08-48AA-96F4-740E95314760}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -483,7 +1991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -503,7 +2011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -523,7 +2031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -543,7 +2051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -563,7 +2071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -576,7 +2084,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -585,7 +2093,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -594,10 +2102,208 @@
       </c>
       <c r="D10" s="1"/>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
+        <v>59</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
+        <v>63</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>26</v>
+      </c>
+      <c r="E17" s="3">
+        <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>SUBTOTAL(109,Tabla2[f])</f>
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <f>SUBTOTAL(109,Tabla2[xf])</f>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5">
+        <f>Tabla2[[#Totals],[xf]]/Tabla2[[#Totals],[f]]</f>
+        <v>59.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <f>Tabla2[[#Totals],[f]]/2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="5">
+        <f>57+(((30/2)-9)/8)*4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="5">
+        <f>61+(((9-8)/(9-8+9-4))*4)</f>
+        <v>61.666666666666664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/P&E/clase03x1.xlsx
+++ b/P&E/clase03x1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2FC6DD-801C-4190-9F79-9AB23A67C3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F83D7-D704-4CBB-A053-21700FA7BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="0" windowWidth="7410" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
+    <sheet name="Video3" sheetId="8" r:id="rId1"/>
+    <sheet name="Video4" sheetId="6" r:id="rId2"/>
+    <sheet name="Video5" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Edades</t>
   </si>
@@ -131,13 +133,58 @@
   </si>
   <si>
     <t>Entonces promedio:</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>60-65</t>
+  </si>
+  <si>
+    <t>65-70</t>
+  </si>
+  <si>
+    <t>70-75</t>
+  </si>
+  <si>
+    <t>75-80</t>
+  </si>
+  <si>
+    <t>80-85</t>
+  </si>
+  <si>
+    <t>85-90</t>
+  </si>
+  <si>
+    <t>Promedio:</t>
+  </si>
+  <si>
+    <t>Mediana:</t>
+  </si>
+  <si>
+    <t>Moda:</t>
+  </si>
+  <si>
+    <t>Intervalo Me y Mo coinciden</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>60-70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +199,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -218,18 +271,417 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -267,12 +719,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381125" cy="654603"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -314,6 +766,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -437,7 +890,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -557,12 +1010,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2897460" cy="858505"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -604,6 +1057,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -739,13 +1193,7 @@
                               <a:rPr lang="es-ES" sz="2200" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>−1</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -817,7 +1265,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -889,12 +1337,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4444743" cy="703719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -936,6 +1384,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1021,7 +1470,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1048,7 +1497,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1089,13 +1538,7 @@
                               <a:rPr lang="es-ES" sz="2200" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>−1</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -1138,7 +1581,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1152,7 +1595,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1179,7 +1622,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1191,23 +1634,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>−1</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -1231,7 +1662,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1244,7 +1675,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1256,7 +1687,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1270,7 +1701,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1284,7 +1715,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1298,7 +1729,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1325,7 +1756,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1341,19 +1772,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>+</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>+1</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -1363,7 +1782,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1410,7 +1829,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1641,14 +2060,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0133A0E3-7324-4F8D-B9D9-7196C3307884}" name="Tabla1" displayName="Tabla1" ref="A1:E7" totalsRowCount="1">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6A773ED0-7A66-4C57-9D91-DEDDC1C3E1B3}" name="Edades" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F8B072C5-715E-4F3A-8B33-B7F73441925B}" name="x" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{F8B072C5-715E-4F3A-8B33-B7F73441925B}" name="x" dataDxfId="29">
       <calculatedColumnFormula>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7C022807-357B-48CE-A095-B0EEAE231187}" name="fab" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{D2CC48FD-6C91-4A72-BE6C-33FA754154C2}" name="Faa" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{D2CC48FD-6C91-4A72-BE6C-33FA754154C2}" name="Faa" dataDxfId="28">
       <calculatedColumnFormula>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A1367C7C-F9F7-4539-8846-9AB76CCC078F}" name="x*f" totalsRowFunction="sum" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{A1367C7C-F9F7-4539-8846-9AB76CCC078F}" name="x*f" totalsRowFunction="sum" dataDxfId="27">
       <calculatedColumnFormula>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1657,18 +2076,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB4FE7E1-4064-4BEA-9925-BE044B8684F3}" name="Tabla2" displayName="Tabla2" ref="A13:E19" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB4FE7E1-4064-4BEA-9925-BE044B8684F3}" name="Tabla2" displayName="Tabla2" ref="A2:E8" totalsRowCount="1">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{76BB6652-3F24-48FB-8DB8-8FB9BC699AD3}" name="Peso" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{57961F8B-FC13-4B3C-904C-5B4D70CD186F}" name="x" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{57961F8B-FC13-4B3C-904C-5B4D70CD186F}" name="x" dataDxfId="32">
       <calculatedColumnFormula>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7F59D1AC-B4D7-4C02-8CA6-0BF80D5C0FFA}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{8C490FF0-3C20-4135-99F4-5741FA3A5425}" name="Faa" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{8C490FF0-3C20-4135-99F4-5741FA3A5425}" name="Faa" dataDxfId="31">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD4975C8-3E7C-4C20-8365-84C867E58B78}" name="xf" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{DD4975C8-3E7C-4C20-8365-84C867E58B78}" name="xf" totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F9283DB-921E-424F-900B-B065C1FE4616}" name="Tabla3" displayName="Tabla3" ref="A1:E9" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78F1EAB2-854C-4966-8DE0-69DED64F5D46}" name="Horas" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{78B36277-E57F-4877-BAEB-DE0DF85FF68B}" name="x" dataDxfId="20" totalsRowDxfId="21">
+      <calculatedColumnFormula>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F1657FDA-4828-4F5E-89F6-40892B65C555}" name="f" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{59474CC1-9E4D-4651-9521-243D44D6BF37}" name="Faa" dataDxfId="16" totalsRowDxfId="17">
+      <calculatedColumnFormula>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3CB54C0F-9F77-4F58-9CB4-5E8C9743AAD8}" name="xf" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15">
+      <calculatedColumnFormula>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C08811A-4C51-4183-93D6-2827D17740B1}" name="Tabla35" displayName="Tabla35" ref="A20:E24" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5ED37982-299E-4EF7-B8FB-5FCB609D4433}" name="Peso" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D49CACB7-A2F9-4700-812F-63272237E80B}" name="x" dataDxfId="9" totalsRowDxfId="3">
+      <calculatedColumnFormula>AVERAGE(LEFT(Tabla35[[#This Row],[Peso]],2),RIGHT(Tabla35[[#This Row],[Peso]],2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{573BD373-20BF-4586-9B86-68BC6B180F74}" name="f" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E99C288B-8AB5-439F-B466-CFF63E4DD81D}" name="Faa" dataDxfId="7" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUM(INDEX(Tabla35[f],1):Tabla35[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A75AFEA0-AA29-4C93-AD28-200D35FAE66C}" name="xf" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tabla35[[#This Row],[x]]*Tabla35[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1937,11 +2394,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DDAF5A-3E77-46C2-A2B7-C07B6A6B073E}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>SUBTOTAL(109,Tabla1[fab])</f>
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f>SUBTOTAL(109,Tabla1[x*f])</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <f>Tabla1[[#Totals],[x*f]]/Tabla1[[#Totals],[fab]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB824CA-7F08-48AA-96F4-740E95314760}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,345 +2577,197 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</f>
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</f>
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>SUBTOTAL(109,Tabla1[fab])</f>
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <f>SUBTOTAL(109,Tabla1[x*f])</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <f>Tabla1[[#Totals],[x*f]]/Tabla1[[#Totals],[fab]]</f>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
         <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
         <v>51</v>
       </c>
-      <c r="C14">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D3">
         <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E3">
         <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
         <v>153</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B4">
         <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
         <v>55</v>
       </c>
-      <c r="C15">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="D4">
         <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E4">
         <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B5" s="1">
         <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
         <v>59</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C5" s="1">
         <v>8</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D5" s="1">
         <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
         <v>17</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E5" s="1">
         <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B6" s="3">
         <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
         <v>63</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C6" s="3">
         <v>9</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D6" s="3">
         <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
         <v>26</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E6" s="3">
         <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B7">
         <f>AVERAGE(LEFT(Tabla2[[#This Row],[Peso]],2),RIGHT(Tabla2[[#This Row],[Peso]],2))</f>
         <v>67</v>
       </c>
-      <c r="C18">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D7">
         <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
         <v>30</v>
       </c>
-      <c r="E18">
+      <c r="E7">
         <f>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</f>
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C8">
         <f>SUBTOTAL(109,Tabla2[f])</f>
         <v>30</v>
       </c>
-      <c r="E19">
+      <c r="E8">
         <f>SUBTOTAL(109,Tabla2[xf])</f>
         <v>1790</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="4" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H9" s="5">
         <f>Tabla2[[#Totals],[xf]]/Tabla2[[#Totals],[f]]</f>
         <v>59.666666666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D22">
+      <c r="D11">
         <f>Tabla2[[#Totals],[f]]/2</f>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="4" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H19" s="5">
         <f>57+(((30/2)-9)/8)*4</f>
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="4" t="s">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H28" s="5">
         <f>61+(((9-8)/(9-8+9-4))*4)</f>
         <v>61.666666666666664</v>
       </c>
@@ -2301,9 +2776,370 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5589-2047-4B05-9B39-C4B1404FD544}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>57.5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>62.5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>67.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>43</v>
+      </c>
+      <c r="E4" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>72.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>93</v>
+      </c>
+      <c r="E5" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>3625</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>77.5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>110</v>
+      </c>
+      <c r="E6" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>1317.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>82.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>126</v>
+      </c>
+      <c r="E7" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6">
+        <f>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</f>
+        <v>87.5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</f>
+        <v>130</v>
+      </c>
+      <c r="E8" s="6">
+        <f>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <f>SUBTOTAL(109,Tabla3[f])</f>
+        <v>130</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <f>SUBTOTAL(109,Tabla3[xf])</f>
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7">
+        <f>Tabla3[[#Totals],[xf]]/Tabla3[[#Totals],[f]]</f>
+        <v>72.115384615384613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <f>70+(((130/2)-43)/50)*5</f>
+        <v>72.2</v>
+      </c>
+      <c r="E13">
+        <f>Tabla3[[#Totals],[f]]/2</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7">
+        <f>70+5*(30/(30+50-17))</f>
+        <v>72.38095238095238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6">
+        <f>AVERAGE(LEFT(Tabla35[[#This Row],[Peso]],2),RIGHT(Tabla35[[#This Row],[Peso]],2))</f>
+        <v>45</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(INDEX(Tabla35[f],1):Tabla35[[#This Row],[f]])</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="6">
+        <f>Tabla35[[#This Row],[x]]*Tabla35[[#This Row],[f]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6">
+        <f>AVERAGE(LEFT(Tabla35[[#This Row],[Peso]],2),RIGHT(Tabla35[[#This Row],[Peso]],2))</f>
+        <v>55</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(INDEX(Tabla35[f],1):Tabla35[[#This Row],[f]])</f>
+        <v>14</v>
+      </c>
+      <c r="E22" s="6">
+        <f>Tabla35[[#This Row],[x]]*Tabla35[[#This Row],[f]]</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <f>AVERAGE(LEFT(Tabla35[[#This Row],[Peso]],2),RIGHT(Tabla35[[#This Row],[Peso]],2))</f>
+        <v>65</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <f>SUM(INDEX(Tabla35[f],1):Tabla35[[#This Row],[f]])</f>
+        <v>16</v>
+      </c>
+      <c r="E23" s="6">
+        <f>Tabla35[[#This Row],[x]]*Tabla35[[#This Row],[f]]</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <f>SUBTOTAL(109,Tabla35[f])</f>
+        <v>16</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <f>SUBTOTAL(109,Tabla35[xf])</f>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="7">
+        <f>Tabla35[[#Totals],[xf]]/Tabla35[[#Totals],[f]]</f>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7">
+        <f>50+10*((8-4)/10)</f>
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <f>Tabla35[[#Totals],[f]]/2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="7">
+        <f>50+10*((6)/((6)+(8)))</f>
+        <v>54.285714285714285</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:E8 A21:E23">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$C2=50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/P&E/clase03x1.xlsx
+++ b/P&E/clase03x1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F83D7-D704-4CBB-A053-21700FA7BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015FCCF-72A6-4AB6-A1A0-1FC5DDC20E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="0" windowWidth="7410" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="0" windowWidth="7410" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="8" r:id="rId1"/>
     <sheet name="Video4" sheetId="6" r:id="rId2"/>
     <sheet name="Video5" sheetId="7" r:id="rId3"/>
+    <sheet name="Video6" sheetId="9" r:id="rId4"/>
+    <sheet name="Video7" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Edades</t>
   </si>
@@ -178,6 +180,9 @@
   </si>
   <si>
     <t>60-70</t>
+  </si>
+  <si>
+    <t>Media:</t>
   </si>
 </sst>
 </file>
@@ -284,7 +289,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -305,11 +326,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -320,6 +337,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -341,11 +359,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -356,6 +370,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -376,11 +391,36 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -399,6 +439,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -410,7 +468,48 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -468,6 +567,21 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -511,106 +625,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2060,14 +2074,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0133A0E3-7324-4F8D-B9D9-7196C3307884}" name="Tabla1" displayName="Tabla1" ref="A1:E7" totalsRowCount="1">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6A773ED0-7A66-4C57-9D91-DEDDC1C3E1B3}" name="Edades" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F8B072C5-715E-4F3A-8B33-B7F73441925B}" name="x" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{F8B072C5-715E-4F3A-8B33-B7F73441925B}" name="x" dataDxfId="35">
       <calculatedColumnFormula>AVERAGE(RIGHT(Tabla1[[#This Row],[Edades]],2),LEFT(Tabla1[[#This Row],[Edades]],2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7C022807-357B-48CE-A095-B0EEAE231187}" name="fab" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{D2CC48FD-6C91-4A72-BE6C-33FA754154C2}" name="Faa" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{D2CC48FD-6C91-4A72-BE6C-33FA754154C2}" name="Faa" dataDxfId="34">
       <calculatedColumnFormula>SUM(INDEX(Tabla1[fab],1):Tabla1[[#This Row],[fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A1367C7C-F9F7-4539-8846-9AB76CCC078F}" name="x*f" totalsRowFunction="sum" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{A1367C7C-F9F7-4539-8846-9AB76CCC078F}" name="x*f" totalsRowFunction="sum" dataDxfId="33">
       <calculatedColumnFormula>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[fab]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2095,17 +2109,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F9283DB-921E-424F-900B-B065C1FE4616}" name="Tabla3" displayName="Tabla3" ref="A1:E9" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F9283DB-921E-424F-900B-B065C1FE4616}" name="Tabla3" displayName="Tabla3" ref="A1:E9" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78F1EAB2-854C-4966-8DE0-69DED64F5D46}" name="Horas" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{78B36277-E57F-4877-BAEB-DE0DF85FF68B}" name="x" dataDxfId="20" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{78F1EAB2-854C-4966-8DE0-69DED64F5D46}" name="Horas" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{78B36277-E57F-4877-BAEB-DE0DF85FF68B}" name="x" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>AVERAGE(LEFT(Tabla3[[#This Row],[Horas]],2),RIGHT(Tabla3[[#This Row],[Horas]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F1657FDA-4828-4F5E-89F6-40892B65C555}" name="f" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{59474CC1-9E4D-4651-9521-243D44D6BF37}" name="Faa" dataDxfId="16" totalsRowDxfId="17">
+    <tableColumn id="3" xr3:uid="{F1657FDA-4828-4F5E-89F6-40892B65C555}" name="f" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{59474CC1-9E4D-4651-9521-243D44D6BF37}" name="Faa" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>SUM(INDEX(Tabla3[f],1):Tabla3[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3CB54C0F-9F77-4F58-9CB4-5E8C9743AAD8}" name="xf" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="5" xr3:uid="{3CB54C0F-9F77-4F58-9CB4-5E8C9743AAD8}" name="xf" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2114,18 +2128,38 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C08811A-4C51-4183-93D6-2827D17740B1}" name="Tabla35" displayName="Tabla35" ref="A20:E24" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C08811A-4C51-4183-93D6-2827D17740B1}" name="Tabla35" displayName="Tabla35" ref="A20:E24" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5ED37982-299E-4EF7-B8FB-5FCB609D4433}" name="Peso" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D49CACB7-A2F9-4700-812F-63272237E80B}" name="x" dataDxfId="9" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{5ED37982-299E-4EF7-B8FB-5FCB609D4433}" name="Peso" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D49CACB7-A2F9-4700-812F-63272237E80B}" name="x" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>AVERAGE(LEFT(Tabla35[[#This Row],[Peso]],2),RIGHT(Tabla35[[#This Row],[Peso]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{573BD373-20BF-4586-9B86-68BC6B180F74}" name="f" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E99C288B-8AB5-439F-B466-CFF63E4DD81D}" name="Faa" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{573BD373-20BF-4586-9B86-68BC6B180F74}" name="f" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E99C288B-8AB5-439F-B466-CFF63E4DD81D}" name="Faa" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>SUM(INDEX(Tabla35[f],1):Tabla35[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A75AFEA0-AA29-4C93-AD28-200D35FAE66C}" name="xf" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{A75AFEA0-AA29-4C93-AD28-200D35FAE66C}" name="xf" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla35[[#This Row],[x]]*Tabla35[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4B7F2EC-3ADC-4268-B035-EF9D1F5B2BBB}" name="Tabla5" displayName="Tabla5" ref="A1:E7" totalsRowCount="1">
+  <autoFilter ref="A1:E6" xr:uid="{E4B7F2EC-3ADC-4268-B035-EF9D1F5B2BBB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8067A88C-9E52-4CC7-9ECA-4AD75F8496D4}" name="Edades" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{99D9A2BB-6A46-4BEC-94FE-9ADA5287536B}" name="x" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(LEFT(Tabla5[[#This Row],[Edades]],2),RIGHT(Tabla5[[#This Row],[Edades]],2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{065C3C63-9D86-4EA8-A1B9-7CBD2160F73D}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{42560942-8C2C-4CCC-BEF2-716DEC6F9F0A}" name="Faa" dataDxfId="2">
+      <calculatedColumnFormula>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{71F72CCD-C047-4D0F-8088-1E1CE1DA3023}" name="xf" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>Tabla5[[#This Row],[x]]*Tabla5[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2786,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5589-2047-4B05-9B39-C4B1404FD544}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3131,7 +3165,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E8 A21:E23">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C2=50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3142,4 +3176,268 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711322A8-63E3-41AB-9F99-2DEF5BF4718F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(LEFT(Tabla5[[#This Row],[Edades]],2),RIGHT(Tabla5[[#This Row],[Edades]],2))</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>Tabla5[[#This Row],[x]]*Tabla5[[#This Row],[f]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <f>AVERAGE(LEFT(Tabla5[[#This Row],[Edades]],2),RIGHT(Tabla5[[#This Row],[Edades]],2))</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Tabla5[[#This Row],[x]]*Tabla5[[#This Row],[f]]</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(LEFT(Tabla5[[#This Row],[Edades]],2),RIGHT(Tabla5[[#This Row],[Edades]],2))</f>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>Tabla5[[#This Row],[x]]*Tabla5[[#This Row],[f]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(LEFT(Tabla5[[#This Row],[Edades]],2),RIGHT(Tabla5[[#This Row],[Edades]],2))</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <f>Tabla5[[#This Row],[x]]*Tabla5[[#This Row],[f]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(LEFT(Tabla5[[#This Row],[Edades]],2),RIGHT(Tabla5[[#This Row],[Edades]],2))</f>
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f>Tabla5[[#This Row],[x]]*Tabla5[[#This Row],[f]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>SUBTOTAL(109,Tabla5[f])</f>
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f>SUBTOTAL(109,Tabla5[xf])</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <f>Tabla5[[#Totals],[xf]]/Tabla5[[#Totals],[f]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <f>15+2*((10-4)/(9))</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="D12">
+        <f>Tabla5[[#Totals],[f]]/2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <f>15+2*((5)/((5)+(6)))</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA3FA2-5107-44F4-8778-EBF5B0005A13}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <f>AVERAGE(A1:A9)</f>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <f>MEDIAN(A1:A9)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.MODE.SNGL(A1:A9)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>